--- a/lesson_7/pivot_table.xlsx
+++ b/lesson_7/pivot_table.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyue\OneDrive\桌面\30hr_pyxl\python_excel_lesson7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weber\Documents\GitHub\2020-Python-Excel-NTU\lesson_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{E5C95281-C3E5-41E5-93F9-039FC60F82AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8112B800-7C82-4DF0-BF51-3FEE5B902779}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B6039-AA01-43D0-AE49-3CD67957FBA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1460" windowWidth="16920" windowHeight="10600" activeTab="1" xr2:uid="{E4460174-9B67-409D-B14E-879E943BDFFC}"/>
+    <workbookView xWindow="6920" yWindow="1460" windowWidth="16920" windowHeight="10600" activeTab="2" xr2:uid="{E4460174-9B67-409D-B14E-879E943BDFFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="銷售數據" sheetId="1" r:id="rId1"/>
-    <sheet name="報告" sheetId="8" r:id="rId2"/>
-    <sheet name="報表2" sheetId="9" r:id="rId3"/>
-    <sheet name="範例樞紐報表" sheetId="7" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="10" r:id="rId1"/>
+    <sheet name="銷售數據" sheetId="1" r:id="rId2"/>
+    <sheet name="報告" sheetId="8" r:id="rId3"/>
+    <sheet name="報表2" sheetId="9" r:id="rId4"/>
+    <sheet name="範例樞紐報表" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="pie_chart_product">報表2!$E$3</definedName>
@@ -25,24 +26,18 @@
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="232">
   <si>
     <t>訂單號碼</t>
   </si>
@@ -735,6 +730,14 @@
   </si>
   <si>
     <t>業務員</t>
+  </si>
+  <si>
+    <t>選取B2~Fx(不含標題) &gt; 插入 &gt; 樞紐報表 &gt; 勾選產品和金額</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>python產生的報表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
     <numFmt numFmtId="176" formatCode="m/d;@"/>
     <numFmt numFmtId="177" formatCode="[$$-404]#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -806,6 +809,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -849,7 +859,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,6 +893,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="White Background" xfId="2" xr:uid="{122CFD4D-4A1F-489D-A51E-4052CDD5A206}"/>
@@ -903,6 +916,197 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>金額</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>蘋果</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>芒果</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>柚子</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>蕃茄</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>香蕉</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>869380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>733462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>721468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>691683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98F3-4FE6-ACEF-BD195C62A0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>報告!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>比例%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>報告!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>蘋果</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>芒果</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>柚子</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>蕃茄</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>香蕉</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>報告!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.428307141749258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.609210026457582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.272196159267011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.435281198930905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.255005473595242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98F3-4FE6-ACEF-BD195C62A0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2061,6 +2265,47 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9821FA9-5D80-4880-B654-19F0110ED337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2114,7 +2359,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3806,6 +4051,67 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51AD2F97-B966-4F9A-B806-A78D4879D780}" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="177" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="加總 - 金額" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{434A5D5B-1B0B-4F2E-8D7E-392D460BF48A}" name="樞紐分析表15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4233,11 +4539,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B097C5F5-DE12-42B4-80C2-5CDEB82714F9}">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
+        <v>733462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="9">
+        <v>721468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>542911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9">
+        <v>691683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9">
+        <v>869380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3558904</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A122F-CF83-4336-9DC0-E5803B000B3D}">
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -8273,22 +8660,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B88F6F-4FFA-40BA-8DEC-CC7B204FE0C3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>869380</v>
+      </c>
+      <c r="C2">
+        <v>24.428307141749258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>733462</v>
+      </c>
+      <c r="C3">
+        <v>20.609210026457582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>721468</v>
+      </c>
+      <c r="C4">
+        <v>20.272196159267011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>691683</v>
+      </c>
+      <c r="C5">
+        <v>19.435281198930905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>542911</v>
+      </c>
+      <c r="C6">
+        <v>15.255005473595242</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113D4900-B122-4A71-A77D-10E181F95AA2}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -8443,7 +8902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF038DF-6442-4628-9BB5-1CE0D8B07010}">
   <dimension ref="A1:B7"/>
   <sheetViews>
